--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1152332.666446191</v>
+        <v>1237699.972479452</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>4171427.157673264</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>168.3967303567125</v>
+        <v>240.484464883937</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>246.9880394751657</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>126.0087286458555</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>141.7781543223992</v>
+        <v>174.5492044969794</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>379.5880638946081</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539835</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398512</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>297.2349872100467</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2987127809956</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253648</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813354</v>
+        <v>33.74703566813367</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1031,7 @@
         <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>72.595848223985</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700518</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887345</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>171.875252411982</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>230.1382449682362</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>85.67291306389183</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>217.36150459891</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1303,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>98.52272637982421</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>117.5778172694998</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>34.82037800654415</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y14" t="n">
-        <v>227.7172236952951</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.7576914549238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>94.81275980261485</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>87.5655215123395</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>134.038989962303</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.4484877422272</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>71.6703719699175</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>77.31354443380498</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>238.6591887249581</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0076120744425</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>59.35991151980221</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>21.72566496549376</v>
       </c>
       <c r="C26" t="n">
-        <v>230.6968828249254</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>282.2968944532322</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>126.7498226612763</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>111.9187566128688</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>169.6447800754155</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>174.7869190180879</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>145.2481701217138</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>106.5867442799596</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>8.694243865611819</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3244,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>213.8614881801112</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>28.9338289356198</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>71.67037196991669</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.7360994390934</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.632494016571004</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>82.93377084804277</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>125.3498961124598</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6.380068175847438</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>85.14666869057369</v>
+        <v>145.2219459239349</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>74.75769145492339</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>147.9212967840873</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>265.1843234240126</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>186.8250998946388</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.55596175061132</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4263234899697</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739748</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739748</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="D2" t="n">
-        <v>574.0438072739748</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="E2" t="n">
-        <v>574.0438072739748</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="F2" t="n">
         <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X2" t="n">
-        <v>574.0438072739748</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739748</v>
+        <v>646.8597007358178</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.0846976543626</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="C3" t="n">
-        <v>167.6316683732355</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110956</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>342.0846976543626</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X3" t="n">
-        <v>342.0846976543626</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y3" t="n">
-        <v>342.0846976543626</v>
+        <v>211.9971269606149</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>313.4177110298542</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>700.593955598722</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>434.216299031544</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>179.5318108256571</v>
+        <v>671.3785036348206</v>
       </c>
       <c r="W4" t="n">
-        <v>36.32155393434482</v>
+        <v>495.0661758600939</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>495.0661758600939</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>495.0661758600939</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1339.682528309337</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="C5" t="n">
-        <v>1339.682528309337</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="D5" t="n">
-        <v>1339.682528309337</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="E5" t="n">
-        <v>956.2602415471063</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="F5" t="n">
-        <v>545.2743367574988</v>
+        <v>450.3117453783084</v>
       </c>
       <c r="G5" t="n">
-        <v>128.8280277705477</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705477</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135751</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780281</v>
+        <v>108.4604468780275</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818703</v>
+        <v>270.997549081869</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587374006</v>
+        <v>509.5409587373983</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176518</v>
+        <v>806.6359018176481</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058975</v>
+        <v>1113.15196005897</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836703</v>
+        <v>1389.251120836697</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921696</v>
+        <v>1590.394365921689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567875</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567875</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961965</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="T5" t="n">
-        <v>1339.682528309337</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="U5" t="n">
-        <v>1339.682528309337</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="V5" t="n">
-        <v>1339.682528309337</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.682528309337</v>
+        <v>1251.436982143728</v>
       </c>
       <c r="X5" t="n">
-        <v>1339.682528309337</v>
+        <v>1251.436982143728</v>
       </c>
       <c r="Y5" t="n">
-        <v>1339.682528309337</v>
+        <v>861.2976501679159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623.6403305782605</v>
+        <v>429.2170996684586</v>
       </c>
       <c r="C6" t="n">
-        <v>449.1873012971336</v>
+        <v>429.2170996684586</v>
       </c>
       <c r="D6" t="n">
-        <v>449.1873012971336</v>
+        <v>429.2170996684586</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>429.2170996684586</v>
       </c>
       <c r="F6" t="n">
         <v>302.6527433240185</v>
@@ -4638,58 +4640,58 @@
         <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765401</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135751</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324498</v>
+        <v>184.3059916402492</v>
       </c>
       <c r="K6" t="n">
-        <v>443.2235805075037</v>
+        <v>306.2331208520545</v>
       </c>
       <c r="L6" t="n">
-        <v>653.4921936302396</v>
+        <v>516.5017339747895</v>
       </c>
       <c r="M6" t="n">
-        <v>918.2226155869819</v>
+        <v>781.2321559315308</v>
       </c>
       <c r="N6" t="n">
-        <v>1204.368308998711</v>
+        <v>1067.377849343259</v>
       </c>
       <c r="O6" t="n">
-        <v>1443.915920172909</v>
+        <v>1306.925460517456</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557622</v>
+        <v>1479.850471131925</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232589</v>
+        <v>1693.078019232581</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567875</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843121</v>
+        <v>1550.180157843113</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.57427217846</v>
+        <v>1354.574272178451</v>
       </c>
       <c r="U6" t="n">
-        <v>1281.245132558273</v>
+        <v>1126.458064833936</v>
       </c>
       <c r="V6" t="n">
-        <v>1046.09302432653</v>
+        <v>891.305956602193</v>
       </c>
       <c r="W6" t="n">
-        <v>791.8556675983286</v>
+        <v>637.0685998739914</v>
       </c>
       <c r="X6" t="n">
-        <v>791.8556675983286</v>
+        <v>429.2170996684586</v>
       </c>
       <c r="Y6" t="n">
-        <v>791.8556675983286</v>
+        <v>429.2170996684586</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297.6369997414798</v>
+        <v>519.0338153021706</v>
       </c>
       <c r="C7" t="n">
-        <v>297.6369997414798</v>
+        <v>350.0976323742638</v>
       </c>
       <c r="D7" t="n">
-        <v>297.6369997414798</v>
+        <v>350.0976323742638</v>
       </c>
       <c r="E7" t="n">
-        <v>149.7239061590867</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="F7" t="n">
-        <v>149.7239061590867</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="G7" t="n">
-        <v>149.7239061590867</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590867</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135751</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652239</v>
+        <v>36.285121336522</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128606</v>
+        <v>170.0982437128598</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119601</v>
+        <v>396.8594047119589</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191558</v>
+        <v>646.336377819154</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361679</v>
+        <v>895.3159625361657</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021384</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.82880558047</v>
+        <v>1268.828805580467</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397018</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.32215593365</v>
+        <v>1178.322155933647</v>
       </c>
       <c r="S7" t="n">
-        <v>1004.710789860941</v>
+        <v>975.8964400230168</v>
       </c>
       <c r="T7" t="n">
-        <v>780.3110388453839</v>
+        <v>751.4966890074597</v>
       </c>
       <c r="U7" t="n">
-        <v>780.3110388453839</v>
+        <v>751.4966890074597</v>
       </c>
       <c r="V7" t="n">
-        <v>525.6265506394971</v>
+        <v>519.0338153021706</v>
       </c>
       <c r="W7" t="n">
-        <v>525.6265506394971</v>
+        <v>519.0338153021706</v>
       </c>
       <c r="X7" t="n">
-        <v>297.6369997414798</v>
+        <v>519.0338153021706</v>
       </c>
       <c r="Y7" t="n">
-        <v>297.6369997414798</v>
+        <v>519.0338153021706</v>
       </c>
     </row>
     <row r="8">
@@ -4799,7 +4801,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4808,10 +4810,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4820,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2475.801032376023</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2475.801032376023</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="W8" t="n">
-        <v>2475.801032376023</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="X8" t="n">
-        <v>2475.801032376023</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="Y8" t="n">
-        <v>2085.661700400211</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="9">
@@ -4863,49 +4865,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625333</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217535</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118699</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.639966294861</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080695</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>813.841548125043</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>644.9053651971361</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,7 +4983,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
@@ -4993,19 +4995,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="W10" t="n">
-        <v>995.4900129552827</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="X10" t="n">
-        <v>995.4900129552827</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y10" t="n">
-        <v>995.4900129552827</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5036,55 +5038,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3290.433722612661</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3290.433722612661</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3036.903245886498</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2705.840358542927</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2353.071703272813</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1979.605945011733</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1589.466613035921</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5138,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5194,19 +5196,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,22 +5220,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W13" t="n">
         <v>1722.044275313594</v>
@@ -5276,19 +5278,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,22 +5305,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X14" t="n">
-        <v>2961.784676410102</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
         <v>2731.767278738087</v>
@@ -5346,28 +5348,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5555,10 +5557,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="18">
@@ -5613,7 +5615,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>913.8018420618818</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>1600.215744761477</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W19" t="n">
-        <v>1310.798574724517</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.809023826499</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0164446829692</v>
+        <v>913.8018420618818</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1202.866772971799</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C20" t="n">
-        <v>1202.866772971799</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D20" t="n">
-        <v>1202.866772971799</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E20" t="n">
-        <v>817.078520373555</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5765,37 +5767,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5825,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,22 +5837,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1783.876212293103</v>
+        <v>2151.073568494536</v>
       </c>
       <c r="C22" t="n">
-        <v>1614.940029365196</v>
+        <v>1982.137385566629</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.82338995286</v>
+        <v>1832.020746154294</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.82338995286</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.82338995286</v>
+        <v>1537.21770507399</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348672</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797168</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396717</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022995</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456654</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>3247.511332282093</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>2958.408465407737</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V22" t="n">
-        <v>2703.72397720185</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="W22" t="n">
-        <v>2414.30680716489</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X22" t="n">
-        <v>2186.317256266872</v>
+        <v>2553.514612468306</v>
       </c>
       <c r="Y22" t="n">
-        <v>1965.524677123342</v>
+        <v>2332.722033324776</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339055</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>2972.837166339055</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6087,7 +6089,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>646.6939999491682</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="C25" t="n">
-        <v>477.7578170212613</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="D25" t="n">
-        <v>477.7578170212613</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="E25" t="n">
-        <v>477.7578170212613</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T25" t="n">
-        <v>1821.226253063803</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U25" t="n">
-        <v>1821.226253063803</v>
+        <v>2533.219997888693</v>
       </c>
       <c r="V25" t="n">
-        <v>1566.541764857916</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W25" t="n">
-        <v>1277.124594820955</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X25" t="n">
-        <v>1049.135043922938</v>
+        <v>1929.158833060187</v>
       </c>
       <c r="Y25" t="n">
-        <v>828.3424647794079</v>
+        <v>1708.366253916657</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2209.232076102165</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
         <v>406.0926155839475</v>
@@ -6224,19 +6226,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6251,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102165</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6291,13 +6293,13 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
@@ -6315,22 +6317,22 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796247</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C29" t="n">
-        <v>552.807938939213</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>194.5422403324625</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>66.51211643218339</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218339</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450752</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919558</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943746</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6552,16 +6554,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1989.118339645846</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C31" t="n">
-        <v>1989.118339645846</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D31" t="n">
-        <v>1989.118339645846</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>1989.118339645846</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>1876.069090541938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916657</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>2822.32286476305</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>2533.219997888693</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V31" t="n">
-        <v>2278.535509682807</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W31" t="n">
-        <v>1989.118339645846</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="X31" t="n">
-        <v>1989.118339645846</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y31" t="n">
-        <v>1989.118339645846</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1381.278680221567</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C32" t="n">
-        <v>1012.316163281155</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D32" t="n">
-        <v>654.050464674405</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>552.807938939214</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218342</v>
+        <v>552.807938939214</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6728,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.878520285689</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="33">
@@ -6780,16 +6782,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2278.535509682808</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="C34" t="n">
-        <v>2278.535509682808</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="F34" t="n">
         <v>1876.069090541939</v>
@@ -6880,28 +6882,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>3316.823757098452</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>3125.137872925278</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763051</v>
+        <v>2903.371257494804</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>2614.268390620447</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682808</v>
+        <v>2614.268390620447</v>
       </c>
       <c r="W34" t="n">
-        <v>2278.535509682808</v>
+        <v>2324.851220583487</v>
       </c>
       <c r="X34" t="n">
-        <v>2278.535509682808</v>
+        <v>2096.861669685469</v>
       </c>
       <c r="Y34" t="n">
-        <v>2278.535509682808</v>
+        <v>1876.069090541939</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308156</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367744</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.172675760994</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>95.73820626614281</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.60582160917</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.14006334809</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.000731372278</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7026,16 +7028,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>752.7622949738575</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="C37" t="n">
-        <v>583.8261120459506</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D37" t="n">
-        <v>433.7094726336148</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E37" t="n">
-        <v>285.7963790512217</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9064315533114</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088492</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088492</v>
+        <v>2541.781350178108</v>
       </c>
       <c r="V37" t="n">
-        <v>1672.610059882605</v>
+        <v>2541.781350178108</v>
       </c>
       <c r="W37" t="n">
-        <v>1383.192889845645</v>
+        <v>2541.781350178108</v>
       </c>
       <c r="X37" t="n">
-        <v>1155.203338947627</v>
+        <v>2541.781350178108</v>
       </c>
       <c r="Y37" t="n">
-        <v>934.4107598040972</v>
+        <v>2320.988771034578</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1617.939223126803</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3318.906332703543</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U38" t="n">
-        <v>3065.37585597738</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V38" t="n">
-        <v>2734.312968633809</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W38" t="n">
-        <v>2381.544313363695</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="X38" t="n">
-        <v>2008.078555102614</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1617.939223126803</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7227,70 +7229,70 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.5841306576258</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C40" t="n">
-        <v>457.9680739783734</v>
+        <v>72.9566297411202</v>
       </c>
       <c r="D40" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U40" t="n">
-        <v>1356.675339798491</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1101.990851592604</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>812.5736815556431</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X40" t="n">
-        <v>584.5841306576258</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.5841306576258</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796261</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C41" t="n">
-        <v>835.7637198285415</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D41" t="n">
-        <v>477.498021221791</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="42">
@@ -7479,28 +7481,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,10 +7590,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
         <v>1645.778206672847</v>
@@ -7603,16 +7605,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271517</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.4020639300938</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1904.487375535337</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y44" t="n">
-        <v>1904.487375535337</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7740,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>362.8175152271517</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C46" t="n">
-        <v>362.8175152271517</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D46" t="n">
-        <v>311.7508871962312</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E46" t="n">
-        <v>163.8377936138381</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F46" t="n">
-        <v>163.8377936138381</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="W46" t="n">
-        <v>590.8070661251691</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="X46" t="n">
-        <v>362.8175152271517</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y46" t="n">
-        <v>362.8175152271517</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157897</v>
+        <v>25.82445471157945</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>10.66716643458869</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>149.041368106757</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.4490126143853</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>74.3673837816317</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.5207149607585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>79.68129958628833</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>118.098653361525</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>278.2853539212533</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911073</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24178,10 +24180,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>142.2354048423642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>147.5787499310954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>114.5413372017267</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>166.3497438692349</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>361.0081766979868</v>
       </c>
       <c r="C26" t="n">
-        <v>134.5760089460822</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>100.4369472102484</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>255.1805474109854</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24731,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.50229141006247</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>48.93987327667926</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>207.1434510541739</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>265.6735555317396</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>42.02872873825275</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.23790880443552</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>168.0688818921506</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>265.6739354517007</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,13 +25210,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>94.35543628911154</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>8.475738766519441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>197.2854761230491</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>286.7973298304263</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>41.89692498616799</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423649</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>280.1262230804339</v>
+        <v>220.0509458470727</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,10 +25645,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.66335656800746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>100.088568346995</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>167.8579417260441</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>98.05951126760104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>105.2833318990675</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795882.2629683518</v>
+        <v>795882.2629683519</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795882.2629683516</v>
+        <v>795882.2629683517</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795882.2629683517</v>
+        <v>795882.2629683516</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>795882.2629683515</v>
+        <v>795882.2629683518</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795882.2629683516</v>
+        <v>795882.2629683519</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795882.2629683516</v>
+        <v>795882.2629683515</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795882.2629683517</v>
+        <v>795882.2629683516</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>492625.0619185703</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>409196.518765105</v>
+      </c>
+      <c r="F2" t="n">
         <v>409196.5187651049</v>
       </c>
-      <c r="F2" t="n">
-        <v>409196.5187651048</v>
-      </c>
       <c r="G2" t="n">
-        <v>409196.518765105</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="H2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="I2" t="n">
-        <v>409196.5187651046</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="J2" t="n">
-        <v>409196.5187651051</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="K2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="L2" t="n">
+        <v>409196.518765105</v>
+      </c>
+      <c r="M2" t="n">
         <v>409196.5187651049</v>
       </c>
-      <c r="M2" t="n">
-        <v>409196.518765105</v>
-      </c>
       <c r="N2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739523</v>
+        <v>176672.6241739501</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819055</v>
+        <v>223886.3093819075</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911417</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640853</v>
+        <v>41076.98154640805</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946773</v>
+        <v>54988.29121946817</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253016.7649073351</v>
+        <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>205717.3645450214</v>
+        <v>205717.364545022</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214073</v>
       </c>
       <c r="F4" t="n">
         <v>12210.17896214071</v>
       </c>
       <c r="G4" t="n">
+        <v>12210.17896214071</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12210.17896214071</v>
+      </c>
+      <c r="I4" t="n">
         <v>12210.17896214072</v>
       </c>
-      <c r="H4" t="n">
-        <v>12210.17896214072</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>12210.17896214071</v>
       </c>
-      <c r="J4" t="n">
-        <v>12210.17896214072</v>
-      </c>
       <c r="K4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="L4" t="n">
         <v>12210.17896214071</v>
       </c>
       <c r="M4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="N4" t="n">
         <v>12210.17896214071</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923132</v>
+        <v>75746.87167923115</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26485,7 +26487,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139327</v>
@@ -26494,22 +26496,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-503527.4867842241</v>
+        <v>-503527.4867842239</v>
       </c>
       <c r="C6" t="n">
-        <v>34488.20152036482</v>
+        <v>34488.2015203668</v>
       </c>
       <c r="D6" t="n">
-        <v>33054.02282912028</v>
+        <v>33054.02282911834</v>
       </c>
       <c r="E6" t="n">
-        <v>140607.0194243804</v>
+        <v>140607.0194243806</v>
       </c>
       <c r="F6" t="n">
-        <v>322679.9992415708</v>
+        <v>322679.9992415709</v>
       </c>
       <c r="G6" t="n">
-        <v>322679.9992415712</v>
+        <v>322679.9992415709</v>
       </c>
       <c r="H6" t="n">
         <v>322679.9992415709</v>
       </c>
       <c r="I6" t="n">
-        <v>322679.9992415706</v>
+        <v>322679.9992415708</v>
       </c>
       <c r="J6" t="n">
-        <v>253680.8448224569</v>
+        <v>253680.8448224568</v>
       </c>
       <c r="K6" t="n">
-        <v>281603.0176951623</v>
+        <v>281603.0176951629</v>
       </c>
       <c r="L6" t="n">
-        <v>267691.7080221032</v>
+        <v>267691.7080221028</v>
       </c>
       <c r="M6" t="n">
-        <v>275127.7334481562</v>
+        <v>275127.7334481561</v>
       </c>
       <c r="N6" t="n">
-        <v>322679.9992415708</v>
+        <v>322679.9992415709</v>
       </c>
       <c r="O6" t="n">
-        <v>322679.9992415708</v>
+        <v>322679.9992415709</v>
       </c>
       <c r="P6" t="n">
-        <v>322679.9992415708</v>
+        <v>322679.9992415707</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908079</v>
+        <v>751.4467899908061</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919688</v>
+        <v>423.3179548919668</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213296</v>
+        <v>137.3917762213279</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267315</v>
+        <v>182.6181021267332</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904626</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080701</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904624</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080704</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904626</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080701</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>238.4793153849989</v>
+        <v>166.3915808577744</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.706943685753913</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>79.67396713144889</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,16 +27590,16 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117128</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.7448440141918</v>
+        <v>111.9737938396116</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>2.342306177653654</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323767</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539864</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
         <v>251.1039815783922</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>52.0059815073663</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>19.77049961238824</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27749,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>153.2391970470855</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>28.52620633954146</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>21.99939835559181</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27907,10 +27909,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>165.3723370645702</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>110.3907538712249</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>187.7044277413764</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>168.9451810670912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31221,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053497</v>
+        <v>3.020891618053489</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339038</v>
+        <v>30.93770628339031</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050076</v>
+        <v>116.4629241050073</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677682</v>
+        <v>256.3943999677676</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599728</v>
+        <v>384.2687421599719</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159776</v>
+        <v>476.7193540159765</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285364</v>
+        <v>530.4421353285352</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383311</v>
+        <v>539.0252436383297</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113115</v>
+        <v>508.9862526113103</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906158</v>
+        <v>434.4079907906147</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190748</v>
+        <v>326.222309719074</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025532</v>
+        <v>189.7610831025527</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639413</v>
+        <v>68.83856774639396</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802919</v>
+        <v>13.22395305802916</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442797</v>
+        <v>0.2416713294442791</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546266</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395999</v>
+        <v>15.61024369395996</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328154</v>
+        <v>55.64959718328141</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433207</v>
+        <v>152.7067481433203</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499205</v>
+        <v>261.0001553499199</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876882</v>
+        <v>350.9469182876874</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449903</v>
+        <v>409.5385005449893</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345747</v>
+        <v>420.3777660345737</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587864</v>
+        <v>384.5635284587855</v>
       </c>
       <c r="P6" t="n">
-        <v>308.646135307734</v>
+        <v>308.6461353077332</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970988</v>
+        <v>206.3217676970983</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670744</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633085</v>
+        <v>30.02242599633077</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807096</v>
+        <v>6.514901886807081</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043597</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950637</v>
+        <v>1.355067981950634</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952476</v>
+        <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720644</v>
+        <v>40.75058985720634</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632391004</v>
+        <v>95.80330632390981</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029922</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.461652516552</v>
+        <v>201.4616525165515</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706803</v>
+        <v>212.4130655706798</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379554</v>
+        <v>207.3623576379549</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488047</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170115</v>
+        <v>163.8893130170111</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.468465288612</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843499</v>
+        <v>60.92878398843484</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544882</v>
+        <v>23.61513928544877</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879994</v>
+        <v>5.78983592287998</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548937</v>
+        <v>0.07391279901548921</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32555,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33515,7 +33517,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108192</v>
+        <v>75.3484954410813</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149923</v>
+        <v>164.1788911149914</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459904</v>
+        <v>240.9529390459892</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012637</v>
+        <v>300.0959021012625</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417401</v>
+        <v>309.6121800417388</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896248</v>
+        <v>278.8880411896236</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353462</v>
+        <v>203.1749950353451</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446253</v>
+        <v>103.9166198446245</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665402</v>
+        <v>151.9601568170625</v>
       </c>
       <c r="K6" t="n">
-        <v>387.6239533881401</v>
+        <v>123.1587163755609</v>
       </c>
       <c r="L6" t="n">
-        <v>212.392538507814</v>
+        <v>212.3925385078132</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229719</v>
+        <v>267.404466622971</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512415</v>
+        <v>289.0360539512404</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143419</v>
+        <v>241.967284014341</v>
       </c>
       <c r="P6" t="n">
-        <v>185.3388943279924</v>
+        <v>174.671727893403</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107732</v>
+        <v>215.3813617178338</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144312263</v>
+        <v>0.1957579144309705</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237261</v>
+        <v>2.444126207237034</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771093</v>
+        <v>135.1647700771089</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768682</v>
+        <v>229.0516777768677</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325209</v>
+        <v>251.9969425325204</v>
       </c>
       <c r="N7" t="n">
-        <v>251.494530017184</v>
+        <v>251.4945300171835</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628443</v>
+        <v>216.1178277628439</v>
       </c>
       <c r="P7" t="n">
-        <v>161.167872281905</v>
+        <v>161.1678722819046</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691761</v>
+        <v>27.30642203691734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>538.1269048795939</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35267,13 +35269,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.9297349452399</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
@@ -36379,7 +36381,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1237699.972479452</v>
+        <v>1216420.089658389</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673264</v>
+        <v>4171427.157673266</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>240.484464883937</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>122.6622323399416</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>102.9765992936891</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>126.0087286458555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>43.57310181702579</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>174.5492044969794</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>331.8897343747078</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>12.28184589708156</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>140.1815018398515</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>297.2349872100467</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>125.2987127809956</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>96.62520054253653</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813367</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>33.5433254477852</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>230.1382449682362</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>76.60691003871828</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>217.36150459891</v>
+        <v>111.9546287659188</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1344,10 +1344,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>33.04426825583553</v>
       </c>
       <c r="U10" t="n">
-        <v>98.52272637982421</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>157.5027115851896</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.82037800654415</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>28.20584125154443</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>346.9316837919565</v>
       </c>
       <c r="X14" t="n">
-        <v>201.6622187863191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>19.93833665882146</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4541150725672</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>87.5655215123395</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.48786091936088</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7498226612772</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>26.89854620008738</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>71.6703719699175</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>36.15999212057418</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>168.1158122680958</v>
+        <v>151.0551789735751</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>102.8812586124317</v>
       </c>
       <c r="X25" t="n">
-        <v>59.35991151980221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21.72566496549376</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>174.7869190180876</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249712</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>282.2968944532322</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>210.0946544764298</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>88.18935773635853</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.6447800754155</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>145.2481701217138</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>16.34825474388552</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>8.694243865611819</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>132.4473819500903</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>173.2057702920262</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>28.9338289356198</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>277.7360994390934</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>206.5922292904579</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>177.2776744015462</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>82.93377084804277</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>36.51120605957982</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>6.380068175847438</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>145.2219459239349</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>251.6619297099712</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.75769145492339</v>
+        <v>45.37125096121606</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>186.8250998946388</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>230.1984816395433</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>154.6719011066895</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4155,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>120.4263234899697</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>646.8597007358178</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="C2" t="n">
-        <v>646.8597007358178</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="D2" t="n">
-        <v>646.8597007358178</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="E2" t="n">
-        <v>646.8597007358178</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>261.4696880635939</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757742</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V2" t="n">
-        <v>646.8597007358178</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W2" t="n">
-        <v>646.8597007358178</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="X2" t="n">
-        <v>646.8597007358178</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="Y2" t="n">
-        <v>646.8597007358178</v>
+        <v>268.4151888127974</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>211.9971269606149</v>
+        <v>932.5028692494924</v>
       </c>
       <c r="C3" t="n">
-        <v>211.9971269606149</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="D3" t="n">
-        <v>211.9971269606149</v>
+        <v>609.1154303071141</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749989</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4445,16 +4445,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528705</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473376</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>211.9971269606149</v>
+        <v>1036.519636212815</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.4177110298542</v>
+        <v>80.33478809295673</v>
       </c>
       <c r="C4" t="n">
-        <v>144.4815281019473</v>
+        <v>80.33478809295673</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407075</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>671.3785036348206</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="W4" t="n">
-        <v>495.0661758600939</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="X4" t="n">
-        <v>495.0661758600939</v>
+        <v>80.33478809295673</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.0661758600939</v>
+        <v>80.33478809295673</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.2976501679159</v>
+        <v>381.5134972719525</v>
       </c>
       <c r="C5" t="n">
-        <v>861.2976501679159</v>
+        <v>381.5134972719525</v>
       </c>
       <c r="D5" t="n">
-        <v>861.2976501679159</v>
+        <v>381.5134972719525</v>
       </c>
       <c r="E5" t="n">
-        <v>861.2976501679159</v>
+        <v>381.5134972719525</v>
       </c>
       <c r="F5" t="n">
-        <v>450.3117453783084</v>
+        <v>46.27134133790427</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135734</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135734</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135734</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780275</v>
+        <v>108.4604468780273</v>
       </c>
       <c r="K5" t="n">
-        <v>270.997549081869</v>
+        <v>270.9975490818682</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373983</v>
+        <v>509.540958737397</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176481</v>
+        <v>806.6359018176458</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.15196005897</v>
+        <v>1113.151960058967</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836697</v>
+        <v>1389.251120836693</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921689</v>
+        <v>1590.394365921684</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961957</v>
+        <v>1551.674342961951</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961957</v>
+        <v>1339.682528309323</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.674342961957</v>
+        <v>1086.042142876603</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.674342961957</v>
+        <v>754.9792555330324</v>
       </c>
       <c r="W5" t="n">
-        <v>1251.436982143728</v>
+        <v>754.9792555330324</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.436982143728</v>
+        <v>381.5134972719525</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.2976501679159</v>
+        <v>381.5134972719525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429.2170996684586</v>
+        <v>586.1730717004079</v>
       </c>
       <c r="C6" t="n">
-        <v>429.2170996684586</v>
+        <v>586.1730717004079</v>
       </c>
       <c r="D6" t="n">
-        <v>429.2170996684586</v>
+        <v>437.2386620391566</v>
       </c>
       <c r="E6" t="n">
-        <v>429.2170996684586</v>
+        <v>278.0012070337011</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>131.4666490605861</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>131.4666490605861</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765398</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135734</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="J6" t="n">
-        <v>184.3059916402492</v>
+        <v>184.3059916402489</v>
       </c>
       <c r="K6" t="n">
-        <v>306.2331208520545</v>
+        <v>453.7840752777412</v>
       </c>
       <c r="L6" t="n">
-        <v>516.5017339747895</v>
+        <v>664.0526884004757</v>
       </c>
       <c r="M6" t="n">
-        <v>781.2321559315308</v>
+        <v>928.7831103572164</v>
       </c>
       <c r="N6" t="n">
-        <v>1067.377849343259</v>
+        <v>1214.928803768944</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.925460517456</v>
+        <v>1454.476414943141</v>
       </c>
       <c r="P6" t="n">
-        <v>1479.850471131925</v>
+        <v>1627.401425557609</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232581</v>
+        <v>1693.078019232575</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843113</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178451</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="U6" t="n">
-        <v>1126.458064833936</v>
+        <v>1659.389672650907</v>
       </c>
       <c r="V6" t="n">
-        <v>891.305956602193</v>
+        <v>1424.237564419164</v>
       </c>
       <c r="W6" t="n">
-        <v>637.0685998739914</v>
+        <v>1170.000207690963</v>
       </c>
       <c r="X6" t="n">
-        <v>429.2170996684586</v>
+        <v>962.1487074854299</v>
       </c>
       <c r="Y6" t="n">
-        <v>429.2170996684586</v>
+        <v>754.388408720476</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.0338153021706</v>
+        <v>816.0404022124166</v>
       </c>
       <c r="C7" t="n">
-        <v>350.0976323742638</v>
+        <v>647.1042192845097</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0976323742638</v>
+        <v>496.987579872174</v>
       </c>
       <c r="E7" t="n">
-        <v>202.1845387918706</v>
+        <v>349.0744862897809</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1845387918706</v>
+        <v>202.1845387918705</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135734</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135734</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135734</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="J7" t="n">
-        <v>36.285121336522</v>
+        <v>36.28512133652177</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128598</v>
+        <v>170.0982437128594</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119589</v>
+        <v>396.8594047119581</v>
       </c>
       <c r="M7" t="n">
-        <v>646.336377819154</v>
+        <v>646.336377819153</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361657</v>
+        <v>895.3159625361643</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021381</v>
+        <v>1109.272612021379</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580467</v>
+        <v>1268.828805580465</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933647</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="S7" t="n">
-        <v>975.8964400230168</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="T7" t="n">
-        <v>751.4966890074597</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="U7" t="n">
-        <v>751.4966890074597</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="V7" t="n">
-        <v>519.0338153021706</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="W7" t="n">
-        <v>519.0338153021706</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="X7" t="n">
-        <v>519.0338153021706</v>
+        <v>1218.481446186186</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.0338153021706</v>
+        <v>997.6888670426563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.061860336089</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4810,10 +4810,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2089.201192311901</v>
+        <v>1986.927142668221</v>
       </c>
       <c r="W8" t="n">
-        <v>2089.201192311901</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="X8" t="n">
-        <v>2089.201192311901</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="Y8" t="n">
-        <v>1699.061860336089</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="9">
@@ -4865,19 +4865,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,22 +4886,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4992,7 +4992,7 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1303.855917006673</v>
       </c>
       <c r="U10" t="n">
         <v>1014.73757951051</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1202.866772971799</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="C11" t="n">
-        <v>1202.866772971799</v>
+        <v>1682.315766249263</v>
       </c>
       <c r="D11" t="n">
-        <v>1202.866772971799</v>
+        <v>1324.050067642512</v>
       </c>
       <c r="E11" t="n">
-        <v>817.078520373555</v>
+        <v>938.2618150442679</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3290.433722612661</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3290.433722612661</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3036.903245886498</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2705.840358542927</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2353.071703272813</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>1979.605945011733</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y11" t="n">
-        <v>1589.466613035921</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>1114.768990369206</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796256</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>552.807938939214</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324635</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218342</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,7 +5609,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
         <v>2407.41198488674</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>913.8018420618818</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5679,46 +5679,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V19" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W19" t="n">
-        <v>1134.594421205412</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X19" t="n">
-        <v>1134.594421205412</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y19" t="n">
-        <v>913.8018420618818</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796256</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C20" t="n">
-        <v>552.807938939214</v>
+        <v>806.3384156653767</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324635</v>
+        <v>806.3384156653767</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>806.3384156653767</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>806.3384156653767</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>391.2659655103732</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>93.68236511914034</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329463</v>
@@ -5767,37 +5767,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2151.073568494536</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C22" t="n">
-        <v>1982.137385566629</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D22" t="n">
-        <v>1832.020746154294</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E22" t="n">
-        <v>1684.1076525719</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F22" t="n">
-        <v>1537.21770507399</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1890.769303522255</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V22" t="n">
-        <v>3070.921333403284</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W22" t="n">
-        <v>2781.504163366323</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X22" t="n">
-        <v>2553.514612468306</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y22" t="n">
-        <v>2332.722033324776</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G23" t="n">
         <v>66.51211643218339</v>
@@ -5989,16 +5989,16 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6019,22 +6019,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="24">
@@ -6062,19 +6062,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6083,13 +6083,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P24" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1708.366253916657</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="C25" t="n">
-        <v>1708.366253916657</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D25" t="n">
-        <v>1708.366253916657</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E25" t="n">
-        <v>1708.366253916657</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F25" t="n">
-        <v>1708.366253916657</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916657</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396717</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.32286476305</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U25" t="n">
-        <v>2533.219997888693</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V25" t="n">
-        <v>2278.535509682807</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W25" t="n">
-        <v>1989.118339645846</v>
+        <v>1030.988261123135</v>
       </c>
       <c r="X25" t="n">
-        <v>1929.158833060187</v>
+        <v>1030.988261123135</v>
       </c>
       <c r="Y25" t="n">
-        <v>1708.366253916657</v>
+        <v>810.195681979605</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1930.094988518961</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C26" t="n">
-        <v>1561.13247157855</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D26" t="n">
-        <v>1202.866772971799</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E26" t="n">
-        <v>817.078520373555</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520488</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V26" t="n">
-        <v>2678.274518176917</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W26" t="n">
-        <v>2325.505862906803</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X26" t="n">
-        <v>1952.040104645723</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y26" t="n">
-        <v>1952.040104645723</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6293,13 +6293,13 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
@@ -6317,22 +6317,22 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>3133.919937435997</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>2912.153322005523</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>2623.050455131166</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V28" t="n">
-        <v>2368.36596692528</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W28" t="n">
-        <v>2078.948796888319</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X28" t="n">
-        <v>1850.959245990302</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y28" t="n">
-        <v>1630.166666846772</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2303.170539913434</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410102</v>
+        <v>3113.388998905705</v>
       </c>
       <c r="V29" t="n">
-        <v>2961.784676410102</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W29" t="n">
-        <v>2961.784676410102</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X29" t="n">
-        <v>2588.318918149022</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y29" t="n">
-        <v>2588.318918149022</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6554,13 +6554,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088492</v>
+        <v>1646.528504585664</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088492</v>
+        <v>1357.425637711307</v>
       </c>
       <c r="V31" t="n">
-        <v>1672.610059882605</v>
+        <v>1102.74114950542</v>
       </c>
       <c r="W31" t="n">
-        <v>1672.610059882605</v>
+        <v>813.3239794684597</v>
       </c>
       <c r="X31" t="n">
-        <v>1444.620508984588</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796256</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C32" t="n">
-        <v>552.807938939214</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D32" t="n">
-        <v>552.807938939214</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="E32" t="n">
-        <v>552.807938939214</v>
+        <v>125.0224038229021</v>
       </c>
       <c r="F32" t="n">
-        <v>552.807938939214</v>
+        <v>125.0224038229021</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>125.0224038229021</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="33">
@@ -6797,7 +6797,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1876.069090541939</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C34" t="n">
-        <v>1876.069090541939</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D34" t="n">
-        <v>1876.069090541939</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E34" t="n">
-        <v>1876.069090541939</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>3316.823757098452</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>3125.137872925278</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2903.371257494804</v>
+        <v>1601.823429622298</v>
       </c>
       <c r="U34" t="n">
-        <v>2614.268390620447</v>
+        <v>1601.823429622298</v>
       </c>
       <c r="V34" t="n">
-        <v>2614.268390620447</v>
+        <v>1601.823429622298</v>
       </c>
       <c r="W34" t="n">
-        <v>2324.851220583487</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="X34" t="n">
-        <v>2096.861669685469</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y34" t="n">
-        <v>1876.069090541939</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1238.038871968309</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C35" t="n">
-        <v>869.0763550278969</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>510.8106564211463</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>510.8106564211463</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>510.8106564211463</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>95.73820626614281</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V35" t="n">
-        <v>2741.012457539436</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W35" t="n">
-        <v>2388.243802269322</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X35" t="n">
-        <v>2014.778044008242</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y35" t="n">
-        <v>1624.63871203243</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2320.988771034578</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.988771034578</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622242</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.959038039849</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>2541.781350178108</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>2541.781350178108</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W37" t="n">
-        <v>2541.781350178108</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X37" t="n">
-        <v>2541.781350178108</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y37" t="n">
-        <v>2320.988771034578</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1084.351530561926</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>698.5632779636821</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>287.5773731740746</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267228</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>2866.097597267228</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W38" t="n">
-        <v>2866.097597267228</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.8928126690271</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C40" t="n">
-        <v>72.9566297411202</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218339</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218339</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W40" t="n">
-        <v>872.3234075408143</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X40" t="n">
-        <v>644.3338566427969</v>
+        <v>1031.16800938094</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.5412774992668</v>
+        <v>1031.16800938094</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796247</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C41" t="n">
-        <v>775.0816216130238</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D41" t="n">
-        <v>775.0816216130238</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>775.0816216130238</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450752</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919558</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943746</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218339</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218339</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218339</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621292</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251686</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271513</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.0249360836212</v>
+        <v>969.7403902419971</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796247</v>
+        <v>1865.03510695555</v>
       </c>
       <c r="C44" t="n">
-        <v>552.807938939213</v>
+        <v>1496.072590015139</v>
       </c>
       <c r="D44" t="n">
-        <v>364.0957168234162</v>
+        <v>1137.806891408388</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>752.0186388101438</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>341.0327340205362</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919558</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943746</v>
+        <v>2251.634947019672</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2489.924953962484</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C46" t="n">
-        <v>2320.988771034577</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D46" t="n">
-        <v>2170.872131622242</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.959038039849</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396717</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>3235.775364366697</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>3014.008748936224</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>3014.008748936224</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V46" t="n">
-        <v>3014.008748936224</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="W46" t="n">
-        <v>3014.008748936224</v>
+        <v>1224.424878447883</v>
       </c>
       <c r="X46" t="n">
-        <v>2892.365997936254</v>
+        <v>1224.424878447883</v>
       </c>
       <c r="Y46" t="n">
-        <v>2671.573418792724</v>
+        <v>1003.632299304353</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157945</v>
+        <v>25.8244547115797</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>149.0413681067549</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>149.041368106757</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>240.4465442417437</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>21.18099370047452</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>249.3733341565218</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.3673837816317</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>118.2281213950247</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>2.309284925456495</v>
       </c>
       <c r="X14" t="n">
-        <v>168.06888189215</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>232.1993066650065</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.2797265909134</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>79.68129958628833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>224.2217944696763</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>255.1805474109846</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>14.67838357283863</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.35543628911073</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>52.77216054947319</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>181.1251564493172</v>
+        <v>198.1857897438379</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>183.6417397241594</v>
       </c>
       <c r="X25" t="n">
-        <v>166.3497438692349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>361.0081766979868</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>76.20825294081442</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696608</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.4369472102484</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>40.90051748247217</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>131.3595915398107</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.93987327667926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>265.6735555317396</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>278.259509643435</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.23790880443552</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>87.10156732607891</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>192.0671214789813</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>265.6739354517007</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>8.475738766519441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>19.11742609857927</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>233.6440512519072</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>286.7973298304263</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>143.3207741223575</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.2354048423649</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>220.0509458470727</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>134.5760089460824</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.0742887270139</v>
+        <v>134.4607292207212</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>167.8579417260441</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>180.7232440139101</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>25.16007907524775</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>105.2833318990675</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795882.2629683519</v>
+        <v>795882.2629683517</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795882.2629683518</v>
+        <v>795882.2629683515</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795882.2629683517</v>
+        <v>795882.2629683516</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795882.2629683516</v>
+        <v>795882.2629683515</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795882.2629683517</v>
+        <v>795882.2629683515</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>795882.2629683518</v>
+        <v>795882.2629683517</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795882.2629683517</v>
+        <v>795882.2629683518</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795882.2629683519</v>
+        <v>795882.2629683516</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795882.2629683516</v>
+        <v>795882.2629683515</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185702</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185703</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.518765105</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="F2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="G2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651047</v>
       </c>
       <c r="H2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651047</v>
       </c>
       <c r="I2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="J2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="K2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="L2" t="n">
-        <v>409196.518765105</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="M2" t="n">
         <v>409196.5187651049</v>
@@ -26355,7 +26355,7 @@
         <v>409196.5187651049</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739501</v>
+        <v>176672.6241739486</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819075</v>
+        <v>223886.3093819089</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171903</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640805</v>
+        <v>41076.98154640767</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946817</v>
+        <v>54988.29121946857</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>205717.364545022</v>
+        <v>205717.3645450224</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676994</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
         <v>12210.17896214071</v>
@@ -26438,7 +26438,7 @@
         <v>12210.17896214071</v>
       </c>
       <c r="I4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="J4" t="n">
         <v>12210.17896214071</v>
@@ -26472,7 +26472,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923115</v>
+        <v>75746.87167923106</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
@@ -26481,13 +26481,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139327</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26505,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-503527.4867842239</v>
+        <v>-503527.4867842242</v>
       </c>
       <c r="C6" t="n">
-        <v>34488.2015203668</v>
+        <v>34488.20152036817</v>
       </c>
       <c r="D6" t="n">
-        <v>33054.02282911834</v>
+        <v>33054.02282911698</v>
       </c>
       <c r="E6" t="n">
-        <v>140607.0194243806</v>
+        <v>137130.8301263191</v>
       </c>
       <c r="F6" t="n">
-        <v>322679.9992415709</v>
+        <v>319203.80994351</v>
       </c>
       <c r="G6" t="n">
-        <v>322679.9992415709</v>
+        <v>319203.8099435099</v>
       </c>
       <c r="H6" t="n">
-        <v>322679.9992415709</v>
+        <v>319203.8099435096</v>
       </c>
       <c r="I6" t="n">
-        <v>322679.9992415708</v>
+        <v>319203.8099435098</v>
       </c>
       <c r="J6" t="n">
-        <v>253680.8448224568</v>
+        <v>250204.6555243956</v>
       </c>
       <c r="K6" t="n">
-        <v>281603.0176951629</v>
+        <v>278126.8283971022</v>
       </c>
       <c r="L6" t="n">
-        <v>267691.7080221028</v>
+        <v>264215.5187240412</v>
       </c>
       <c r="M6" t="n">
-        <v>275127.7334481561</v>
+        <v>271651.5441500949</v>
       </c>
       <c r="N6" t="n">
-        <v>322679.9992415709</v>
+        <v>319203.80994351</v>
       </c>
       <c r="O6" t="n">
-        <v>322679.9992415709</v>
+        <v>319203.8099435098</v>
       </c>
       <c r="P6" t="n">
-        <v>322679.9992415707</v>
+        <v>319203.8099435098</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908061</v>
+        <v>751.4467899908051</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26792,22 +26792,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919668</v>
+        <v>423.3179548919654</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
@@ -26816,7 +26816,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213279</v>
+        <v>137.3917762213267</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267332</v>
+        <v>182.6181021267342</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904605</v>
+        <v>159.6040748904593</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080721</v>
+        <v>217.2668772080734</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904605</v>
+        <v>159.6040748904591</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080721</v>
+        <v>217.2668772080737</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904605</v>
+        <v>159.6040748904593</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080721</v>
+        <v>217.2668772080734</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>166.3915808577744</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>290.1719423057684</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>63.55658435617826</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>79.67396713144889</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>105.0423712011866</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>111.9737938396116</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>74.98631136700368</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>308.5370958323769</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539864</v>
+        <v>94.01296546539879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>52.0059815073663</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>19.77049961238824</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813375</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>192.2917198232853</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
         <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>21.99939835559181</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>149.1027453503189</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>110.3907538712249</v>
+        <v>215.7976297042161</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>187.7044277413764</v>
       </c>
       <c r="U10" t="n">
-        <v>187.7044277413764</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053489</v>
+        <v>3.020891618053485</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339031</v>
+        <v>30.93770628339027</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050073</v>
+        <v>116.4629241050071</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677676</v>
+        <v>256.3943999677672</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599719</v>
+        <v>384.2687421599713</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159765</v>
+        <v>476.7193540159758</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285352</v>
+        <v>530.4421353285345</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383297</v>
+        <v>539.025243638329</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113103</v>
+        <v>508.9862526113096</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906147</v>
+        <v>434.4079907906141</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.222309719074</v>
+        <v>326.2223097190736</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025527</v>
+        <v>189.7610831025524</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639396</v>
+        <v>68.83856774639386</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802916</v>
+        <v>13.22395305802914</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442791</v>
+        <v>0.2416713294442788</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546262</v>
+        <v>1.61631951054626</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395996</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328141</v>
+        <v>55.64959718328133</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433203</v>
+        <v>152.7067481433201</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499199</v>
+        <v>261.0001553499196</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876874</v>
+        <v>350.9469182876869</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449893</v>
+        <v>409.5385005449887</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345737</v>
+        <v>420.3777660345731</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587855</v>
+        <v>384.563528458785</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077332</v>
+        <v>308.6461353077328</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970983</v>
+        <v>206.3217676970981</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670741</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633077</v>
+        <v>30.02242599633073</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807081</v>
+        <v>6.514901886807072</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043594</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950634</v>
+        <v>1.355067981950632</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952473</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720634</v>
+        <v>40.75058985720629</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390981</v>
+        <v>95.80330632390968</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029918</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165515</v>
+        <v>201.4616525165513</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706798</v>
+        <v>212.4130655706795</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379549</v>
+        <v>207.3623576379546</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488042</v>
+        <v>191.532699848804</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170111</v>
+        <v>163.8893130170109</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886117</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843484</v>
+        <v>60.92878398843477</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544877</v>
+        <v>23.61513928544873</v>
       </c>
       <c r="T7" t="n">
-        <v>5.78983592287998</v>
+        <v>5.789835922879972</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548921</v>
+        <v>0.0739127990154891</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32344,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32393,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32411,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I23" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R23" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,37 +32779,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H24" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J24" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32818,7 +32818,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32867,16 +32867,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L25" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N25" t="n">
         <v>300.7247737883114</v>
@@ -32885,19 +32885,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q25" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S25" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780294</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.3484954410813</v>
+        <v>75.34849544108096</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149914</v>
+        <v>164.1788911149908</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459892</v>
+        <v>240.9529390459886</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012625</v>
+        <v>300.0959021012618</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417388</v>
+        <v>309.6121800417381</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896236</v>
+        <v>278.8880411896229</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353451</v>
+        <v>203.1749950353446</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446245</v>
+        <v>103.9166198446241</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.9601568170625</v>
+        <v>151.9601568170623</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755609</v>
+        <v>272.2000844823155</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078132</v>
+        <v>212.3925385078127</v>
       </c>
       <c r="M6" t="n">
-        <v>267.404466622971</v>
+        <v>267.4044666229704</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512404</v>
+        <v>289.0360539512399</v>
       </c>
       <c r="O6" t="n">
-        <v>241.967284014341</v>
+        <v>241.9672840143405</v>
       </c>
       <c r="P6" t="n">
-        <v>174.671727893403</v>
+        <v>174.6717278934025</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.3813617178338</v>
+        <v>66.33999361107655</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144309705</v>
+        <v>0.1957579144308426</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237034</v>
+        <v>2.444126207236906</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771089</v>
+        <v>135.1647700771087</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768677</v>
+        <v>229.0516777768674</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325204</v>
+        <v>251.9969425325201</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171835</v>
+        <v>251.4945300171832</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628439</v>
+        <v>216.1178277628436</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819046</v>
+        <v>161.1678722819044</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691734</v>
+        <v>27.30642203691718</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>538.1269048795939</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>412.3780932933485</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35272,7 +35272,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977094</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1216420.089658389</v>
+        <v>1234037.539522467</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673266</v>
+        <v>4171427.157673265</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>122.6622323399416</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>111.2254363169657</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.9765992936891</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>40.69502778910034</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>43.57310181702579</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>148.8568323608757</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>331.8897343747078</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.28184589708156</v>
+        <v>12.28184589708155</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>121.7681242420074</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>37.42306615766095</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253653</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>33.5433254477852</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>52.96997752028075</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>76.60691003871828</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>152.4213983072002</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,16 +1192,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>111.9546287659188</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>171.1971464172155</v>
       </c>
       <c r="T10" t="n">
-        <v>33.04426825583553</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>157.5027115851896</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>33.36619356526433</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>28.20584125154443</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>113.5103646250809</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>352.3737566952269</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>346.9316837919565</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>19.93833665882146</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>19.18789823326392</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.4541150725672</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>361.3693442271766</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>1.48786091936088</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>44.75951530680749</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>26.89854620008738</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>92.09843453981365</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>36.15999212057418</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>292.8625891443012</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>151.0551789735751</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>102.8812586124317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>54.97468853727496</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>174.7869190180876</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>177.6639791994868</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785988</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>210.0946544764298</v>
+        <v>56.17639526046234</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>88.18935773635853</v>
+        <v>171.6158951569371</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>129.1643093334199</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>16.34825474388552</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>134.2957068778281</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>132.4473819500903</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>173.2057702920262</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>105.0023863360942</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>206.5922292904579</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>177.2776744015462</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>10.89095412310935</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.51120605957982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>71.98153210089512</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>59.80165496339794</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>251.6619297099712</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.37125096121606</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3954,16 +3954,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>105.9097513261784</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>230.1984816395433</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>72.33270390033921</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.6719011066895</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>125.097181842897</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.4151888127974</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C2" t="n">
-        <v>268.4151888127974</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D2" t="n">
-        <v>268.4151888127974</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>268.4151888127974</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F2" t="n">
-        <v>261.4696880635939</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799753</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="W2" t="n">
-        <v>268.4151888127974</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="X2" t="n">
-        <v>268.4151888127974</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.4151888127974</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>932.5028692494924</v>
+        <v>787.653248772002</v>
       </c>
       <c r="C3" t="n">
-        <v>758.0498399683654</v>
+        <v>613.200219490875</v>
       </c>
       <c r="D3" t="n">
-        <v>609.1154303071141</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4451,10 +4451,10 @@
         <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>995.413547536956</v>
       </c>
       <c r="Y3" t="n">
-        <v>1036.519636212815</v>
+        <v>787.653248772002</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.33478809295673</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="C4" t="n">
-        <v>80.33478809295673</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>563.0088271968609</v>
+        <v>904.4950832778675</v>
       </c>
       <c r="V4" t="n">
-        <v>308.3243389909741</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="W4" t="n">
-        <v>308.3243389909741</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="X4" t="n">
-        <v>80.33478809295673</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.33478809295673</v>
+        <v>649.8105950719806</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381.5134972719525</v>
+        <v>1570.273714272918</v>
       </c>
       <c r="C5" t="n">
-        <v>381.5134972719525</v>
+        <v>1201.311197332507</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5134972719525</v>
+        <v>843.0454987257563</v>
       </c>
       <c r="E5" t="n">
-        <v>381.5134972719525</v>
+        <v>457.2572461275121</v>
       </c>
       <c r="F5" t="n">
-        <v>46.27134133790427</v>
+        <v>46.27134133790453</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135724</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135724</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135724</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780273</v>
+        <v>108.4604468780286</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818682</v>
+        <v>270.9975490818711</v>
       </c>
       <c r="L5" t="n">
-        <v>509.540958737397</v>
+        <v>509.5409587374016</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176458</v>
+        <v>806.6359018176524</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058967</v>
+        <v>1113.151960058975</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836693</v>
+        <v>1389.251120836704</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921684</v>
+        <v>1590.394365921696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567862</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567862</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961951</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="T5" t="n">
-        <v>1339.682528309323</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="U5" t="n">
-        <v>1086.042142876603</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="V5" t="n">
-        <v>754.9792555330324</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="W5" t="n">
-        <v>754.9792555330324</v>
+        <v>1570.273714272918</v>
       </c>
       <c r="X5" t="n">
-        <v>381.5134972719525</v>
+        <v>1570.273714272918</v>
       </c>
       <c r="Y5" t="n">
-        <v>381.5134972719525</v>
+        <v>1570.273714272918</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>586.1730717004079</v>
+        <v>678.6866896809167</v>
       </c>
       <c r="C6" t="n">
-        <v>586.1730717004079</v>
+        <v>504.2336603997898</v>
       </c>
       <c r="D6" t="n">
-        <v>437.2386620391566</v>
+        <v>355.2992507385385</v>
       </c>
       <c r="E6" t="n">
-        <v>278.0012070337011</v>
+        <v>317.4981738116082</v>
       </c>
       <c r="F6" t="n">
-        <v>131.4666490605861</v>
+        <v>170.9636158384932</v>
       </c>
       <c r="G6" t="n">
-        <v>131.4666490605861</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135724</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135724</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="J6" t="n">
-        <v>184.3059916402489</v>
+        <v>59.47586665324498</v>
       </c>
       <c r="K6" t="n">
-        <v>453.7840752777412</v>
+        <v>207.8181108844539</v>
       </c>
       <c r="L6" t="n">
-        <v>664.0526884004757</v>
+        <v>418.0867240071898</v>
       </c>
       <c r="M6" t="n">
-        <v>928.7831103572164</v>
+        <v>682.817145963932</v>
       </c>
       <c r="N6" t="n">
-        <v>1214.928803768944</v>
+        <v>968.962839375661</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.476414943141</v>
+        <v>1208.51045054986</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557609</v>
+        <v>1627.595225892909</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232575</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567862</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567862</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567862</v>
+        <v>1497.665933903214</v>
       </c>
       <c r="U6" t="n">
-        <v>1659.389672650907</v>
+        <v>1497.665933903214</v>
       </c>
       <c r="V6" t="n">
-        <v>1424.237564419164</v>
+        <v>1262.513825671472</v>
       </c>
       <c r="W6" t="n">
-        <v>1170.000207690963</v>
+        <v>1262.513825671472</v>
       </c>
       <c r="X6" t="n">
-        <v>962.1487074854299</v>
+        <v>1054.662325465939</v>
       </c>
       <c r="Y6" t="n">
-        <v>754.388408720476</v>
+        <v>846.9020267009848</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.0404022124166</v>
+        <v>554.3363801122566</v>
       </c>
       <c r="C7" t="n">
-        <v>647.1042192845097</v>
+        <v>385.4001971843497</v>
       </c>
       <c r="D7" t="n">
-        <v>496.987579872174</v>
+        <v>235.283557772014</v>
       </c>
       <c r="E7" t="n">
-        <v>349.0744862897809</v>
+        <v>87.37046418962089</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1845387918705</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135724</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135724</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135724</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652177</v>
+        <v>36.28512133652239</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128594</v>
+        <v>170.0982437128606</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119581</v>
+        <v>396.8594047119601</v>
       </c>
       <c r="M7" t="n">
-        <v>646.336377819153</v>
+        <v>646.3363778191558</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361643</v>
+        <v>895.3159625361679</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.272612021384</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580465</v>
+        <v>1268.82880558047</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397018</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397018</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397018</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397013</v>
+        <v>1071.462412381461</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397013</v>
+        <v>782.325931010274</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.862163397013</v>
+        <v>782.325931010274</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.862163397013</v>
+        <v>782.325931010274</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.481446186186</v>
+        <v>554.3363801122566</v>
       </c>
       <c r="Y7" t="n">
-        <v>997.6888670426563</v>
+        <v>554.3363801122566</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1634.158487398107</v>
+        <v>527.8767859460547</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>527.8767859460547</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>527.8767859460547</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4819,37 +4819,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>1986.927142668221</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.158487398107</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.158487398107</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.158487398107</v>
+        <v>527.8767859460547</v>
       </c>
     </row>
     <row r="9">
@@ -4880,40 +4880,40 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>1117.223096727986</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
@@ -4953,16 +4953,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,28 +4983,28 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="T10" t="n">
-        <v>1303.855917006673</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U10" t="n">
-        <v>1014.73757951051</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V10" t="n">
-        <v>1014.73757951051</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W10" t="n">
-        <v>1014.73757951051</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.73757951051</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
         <v>1014.73757951051</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2051.278283189674</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C11" t="n">
-        <v>1682.315766249263</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="D11" t="n">
-        <v>1324.050067642512</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="E11" t="n">
-        <v>938.2618150442679</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>515.2877924106863</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>100.2153422556827</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,7 +5062,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.278283189674</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>2051.278283189674</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
@@ -5117,49 +5117,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.8928126690276</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="C13" t="n">
-        <v>241.8928126690276</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="D13" t="n">
-        <v>241.8928126690276</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408147</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X13" t="n">
-        <v>644.3338566427974</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y13" t="n">
-        <v>423.5412774992673</v>
+        <v>362.8175152271513</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2003.254328486387</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1634.291811545975</v>
       </c>
       <c r="D14" t="n">
         <v>1278.358723975039</v>
@@ -5269,61 +5269,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V14" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W14" t="n">
-        <v>2769.192029759092</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X14" t="n">
-        <v>2395.726271498012</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y14" t="n">
-        <v>2005.586939522201</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,7 +5375,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>825.3518203322459</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C16" t="n">
         <v>825.3518203322459</v>
@@ -5430,10 +5430,10 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V16" t="n">
-        <v>1114.768990369206</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W16" t="n">
-        <v>825.3518203322459</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X16" t="n">
-        <v>825.3518203322459</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y16" t="n">
-        <v>825.3518203322459</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="17">
@@ -5506,61 +5506,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923657</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653543</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392463</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y17" t="n">
-        <v>1808.800296392463</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,10 +5609,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915318</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484844</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610487</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046005</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676399</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>679.1346335501037</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>679.1346335501037</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1175.300932605788</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C20" t="n">
-        <v>806.3384156653767</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>806.3384156653767</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>806.3384156653767</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>806.3384156653767</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>391.2659655103732</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>93.68236511914034</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5767,37 +5767,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>1952.040104645722</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.90077266991</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5846,7 +5846,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.41198488674</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.4482993600903</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218339</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218339</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218339</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5916,46 +5916,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1890.769303522255</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1699.083419349081</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1699.083419349081</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1409.980552474725</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V22" t="n">
-        <v>1155.296064268838</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W22" t="n">
-        <v>865.8788942318774</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X22" t="n">
-        <v>637.8893433338601</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y22" t="n">
-        <v>417.09676419033</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1232.248790760447</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="C23" t="n">
-        <v>863.2862738200351</v>
+        <v>1159.107070935491</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1159.107070935491</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>773.3188183372467</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218339</v>
+        <v>362.3329135476392</v>
       </c>
       <c r="G23" t="n">
         <v>66.51211643218339</v>
@@ -5989,19 +5989,19 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267228</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923657</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W23" t="n">
-        <v>2382.45372106146</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X23" t="n">
-        <v>2008.98796280038</v>
+        <v>2304.808759915836</v>
       </c>
       <c r="Y23" t="n">
-        <v>1618.848630824569</v>
+        <v>1914.669427940024</v>
       </c>
     </row>
     <row r="24">
@@ -6062,19 +6062,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6083,10 +6083,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>628.5472171493652</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="C25" t="n">
-        <v>628.5472171493652</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D25" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E25" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F25" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218339</v>
@@ -6153,46 +6153,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242372</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V25" t="n">
-        <v>1134.908724368016</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W25" t="n">
-        <v>1030.988261123135</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X25" t="n">
-        <v>1030.988261123135</v>
+        <v>933.4367235171535</v>
       </c>
       <c r="Y25" t="n">
-        <v>810.195681979605</v>
+        <v>877.9067350956636</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1204.726236768953</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>835.7637198285415</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>477.498021221791</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3038.762709683652</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2707.699822340081</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W26" t="n">
-        <v>2354.931167069967</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X26" t="n">
-        <v>1981.465408808887</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
-        <v>1591.326076833075</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610488</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046014</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676408</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696235</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260934</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6454,61 +6454,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>3113.388998905705</v>
+        <v>3062.884240396966</v>
       </c>
       <c r="V29" t="n">
-        <v>2782.326111562134</v>
+        <v>2731.821353053395</v>
       </c>
       <c r="W29" t="n">
-        <v>2782.326111562134</v>
+        <v>2379.052697783281</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>364.5418494269122</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C31" t="n">
-        <v>364.5418494269122</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D31" t="n">
-        <v>214.4252100145765</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T31" t="n">
-        <v>1646.528504585664</v>
+        <v>1664.114701798609</v>
       </c>
       <c r="U31" t="n">
-        <v>1357.425637711307</v>
+        <v>1375.011834924253</v>
       </c>
       <c r="V31" t="n">
-        <v>1102.74114950542</v>
+        <v>1120.327346718366</v>
       </c>
       <c r="W31" t="n">
-        <v>813.3239794684597</v>
+        <v>830.910176681405</v>
       </c>
       <c r="X31" t="n">
-        <v>585.3344285704424</v>
+        <v>602.9206257833877</v>
       </c>
       <c r="Y31" t="n">
-        <v>364.5418494269122</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1238.038871968309</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C32" t="n">
-        <v>869.0763550278969</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D32" t="n">
-        <v>510.8106564211463</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E32" t="n">
-        <v>125.0224038229021</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F32" t="n">
-        <v>125.0224038229021</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>125.0224038229021</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6700,25 +6700,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269322</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.778044008242</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y32" t="n">
-        <v>1624.63871203243</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>814.786862719627</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
@@ -6888,22 +6888,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1601.823429622298</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1601.823429622298</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V34" t="n">
-        <v>1601.823429622298</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W34" t="n">
-        <v>1312.406259585337</v>
+        <v>1224.424878447884</v>
       </c>
       <c r="X34" t="n">
-        <v>1312.406259585337</v>
+        <v>996.4353275498668</v>
       </c>
       <c r="Y34" t="n">
-        <v>1091.613680441807</v>
+        <v>996.4353275498668</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1811.579746109089</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3219.542805108066</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V35" t="n">
-        <v>2961.784676410102</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W35" t="n">
-        <v>2961.784676410102</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X35" t="n">
-        <v>2588.318918149022</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y35" t="n">
-        <v>2198.17958617321</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
@@ -7013,49 +7013,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C37" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D37" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,10 +7116,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
         <v>1645.778206672847</v>
@@ -7131,16 +7131,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X37" t="n">
-        <v>382.1280466398576</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y37" t="n">
-        <v>382.1280466398576</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1811.579746109089</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C38" t="n">
-        <v>1442.617229168677</v>
+        <v>1236.639481552898</v>
       </c>
       <c r="D38" t="n">
-        <v>1084.351530561926</v>
+        <v>878.3737829461477</v>
       </c>
       <c r="E38" t="n">
-        <v>698.5632779636821</v>
+        <v>492.5855303479034</v>
       </c>
       <c r="F38" t="n">
-        <v>287.5773731740746</v>
+        <v>492.5855303479034</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>77.51308019289991</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>77.51308019289991</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W38" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X38" t="n">
-        <v>2588.318918149022</v>
+        <v>2382.341170533243</v>
       </c>
       <c r="Y38" t="n">
-        <v>2198.17958617321</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>994.2880032601528</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="U40" t="n">
-        <v>1513.842048484845</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V40" t="n">
-        <v>1259.157560278958</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W40" t="n">
-        <v>1259.157560278958</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X40" t="n">
-        <v>1031.16800938094</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.16800938094</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2805.691885182988</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y41" t="n">
-        <v>2345.167438673965</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7511,7 +7511,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.9108438165264</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C43" t="n">
-        <v>754.9746608886195</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D43" t="n">
-        <v>604.8580214762837</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E43" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F43" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
         <v>310.0549803959803</v>
@@ -7566,7 +7566,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7602,19 +7602,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V43" t="n">
-        <v>1259.157560278958</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W43" t="n">
-        <v>969.7403902419971</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X43" t="n">
-        <v>969.7403902419971</v>
+        <v>828.3424647794079</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.7403902419971</v>
+        <v>828.3424647794079</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1865.03510695555</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1496.072590015139</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1137.806891408388</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>752.0186388101438</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>341.0327340205362</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
         <v>108.5090151927147</v>
@@ -7645,55 +7645,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265598</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995484</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X44" t="n">
-        <v>2641.774278995484</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.634947019672</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.3980557622424</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C46" t="n">
-        <v>678.4618728343355</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D46" t="n">
-        <v>528.3452334219998</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E46" t="n">
-        <v>380.4321398396066</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G46" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915318</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484844</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U46" t="n">
-        <v>1513.842048484844</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.842048484844</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="W46" t="n">
-        <v>1224.424878447883</v>
+        <v>1134.594421205411</v>
       </c>
       <c r="X46" t="n">
-        <v>1224.424878447883</v>
+        <v>1134.594421205411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.632299304353</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.8244547115797</v>
+        <v>25.82445471157897</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>149.0413681067549</v>
+        <v>26.68193436303335</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>248.6462269985651</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189688959</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111063</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21.18099370047452</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>249.3733341565218</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>261.2415708220561</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>118.2281213950247</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>31.24465028923993</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.309284925456041</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>2.309284925456495</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>232.1993066650065</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>206.5217571557732</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.2797265909134</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.361756451292422</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>224.2217944696763</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696602</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>320.5133764642001</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>14.67838357283863</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>54.33552810675552</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>52.77216054947319</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>118.0591365091523</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>198.1857897438379</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>183.6417397241594</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>163.6099648148198</v>
       </c>
     </row>
     <row r="26">
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24499,16 +24499,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>76.20825294081442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>150.0882792706481</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696645</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>40.90051748247217</v>
+        <v>194.8187766984396</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>131.3595915398107</v>
+        <v>47.93305411923208</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>252.7660607388418</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>278.259509643435</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>32.95111422079972</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>87.10156732607891</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>192.0671214789813</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.18537545208163</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>19.11742609857927</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>233.6440512519072</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>30.68597564981663</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>143.3207741223575</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>16.95062056915222</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>267.950603506737</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>134.5760089460824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.4607292207212</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>119.7999040628587</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>180.7232440139101</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>276.9082648170738</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.16007907524775</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>93.4874715091978</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795882.2629683517</v>
+        <v>795882.2629683515</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795882.2629683515</v>
+        <v>795882.2629683517</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795882.2629683515</v>
+        <v>795882.2629683516</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795882.2629683518</v>
+        <v>795882.2629683516</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795882.2629683516</v>
+        <v>795882.2629683517</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795882.2629683516</v>
+        <v>795882.2629683515</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795882.2629683515</v>
+        <v>795882.2629683516</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="F2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="G2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="H2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="I2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="J2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="K2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="L2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.518765105</v>
       </c>
       <c r="M2" t="n">
         <v>409196.5187651049</v>
@@ -26368,19 +26368,19 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739486</v>
+        <v>176672.6241739523</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819089</v>
+        <v>223886.3093819055</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640767</v>
+        <v>41076.98154640865</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946857</v>
+        <v>54988.2912194677</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>205717.3645450224</v>
+        <v>205717.3645450214</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214072</v>
       </c>
       <c r="F4" t="n">
         <v>12210.17896214071</v>
@@ -26456,7 +26456,7 @@
         <v>12210.17896214071</v>
       </c>
       <c r="O4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214073</v>
       </c>
       <c r="P4" t="n">
         <v>12210.17896214071</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923106</v>
+        <v>75746.87167923132</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26505,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-503527.4867842242</v>
       </c>
       <c r="C6" t="n">
-        <v>34488.20152036817</v>
+        <v>34488.20152036505</v>
       </c>
       <c r="D6" t="n">
-        <v>33054.02282911698</v>
+        <v>33054.02282912034</v>
       </c>
       <c r="E6" t="n">
-        <v>137130.8301263191</v>
+        <v>140259.4004945746</v>
       </c>
       <c r="F6" t="n">
-        <v>319203.80994351</v>
+        <v>322332.3803117648</v>
       </c>
       <c r="G6" t="n">
-        <v>319203.8099435099</v>
+        <v>322332.3803117645</v>
       </c>
       <c r="H6" t="n">
-        <v>319203.8099435096</v>
+        <v>322332.380311765</v>
       </c>
       <c r="I6" t="n">
-        <v>319203.8099435098</v>
+        <v>322332.3803117648</v>
       </c>
       <c r="J6" t="n">
-        <v>250204.6555243956</v>
+        <v>253333.2258926506</v>
       </c>
       <c r="K6" t="n">
-        <v>278126.8283971022</v>
+        <v>281255.398765356</v>
       </c>
       <c r="L6" t="n">
-        <v>264215.5187240412</v>
+        <v>267344.0890922972</v>
       </c>
       <c r="M6" t="n">
-        <v>271651.5441500949</v>
+        <v>274780.1145183499</v>
       </c>
       <c r="N6" t="n">
-        <v>319203.80994351</v>
+        <v>322332.380311765</v>
       </c>
       <c r="O6" t="n">
-        <v>319203.8099435098</v>
+        <v>322332.3803117647</v>
       </c>
       <c r="P6" t="n">
-        <v>319203.8099435098</v>
+        <v>322332.3803117647</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908051</v>
+        <v>751.4467899908079</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919654</v>
+        <v>423.3179548919688</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213267</v>
+        <v>137.3917762213296</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267342</v>
+        <v>182.6181021267315</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,43 +27011,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>263.7138800015062</v>
+      </c>
+      <c r="C4" t="n">
+        <v>159.6040748904626</v>
+      </c>
+      <c r="D4" t="n">
+        <v>217.2668772080702</v>
+      </c>
+      <c r="E4" t="n">
+        <v>190.8166233022536</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C4" t="n">
-        <v>159.6040748904593</v>
-      </c>
-      <c r="D4" t="n">
-        <v>217.2668772080734</v>
-      </c>
-      <c r="E4" t="n">
-        <v>190.816623302254</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015064</v>
-      </c>
       <c r="K4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.6040748904629</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080737</v>
+        <v>217.2668772080702</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904593</v>
+        <v>159.6040748904626</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080734</v>
+        <v>217.2668772080702</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>290.1719423057684</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.55658435617826</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>165.0779574143771</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>105.0423712011866</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27590,10 +27590,10 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>137.4017981418017</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>74.98631136700368</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>308.5370958323767</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539879</v>
+        <v>94.01296546539835</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398512</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>227.4728444754056</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>120.22201429774</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253648</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813375</v>
+        <v>33.74703566813354</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>192.2917198232853</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.4510705026505</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>114.6998850700518</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>116.3646073887345</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>200.4014587515234</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>149.1027453503189</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>229.5089717650615</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>215.7976297042161</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>23.46531394452194</v>
       </c>
       <c r="T10" t="n">
-        <v>187.7044277413764</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053485</v>
+        <v>3.020891618053497</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339027</v>
+        <v>30.93770628339038</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050071</v>
+        <v>116.4629241050076</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677672</v>
+        <v>256.3943999677682</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599713</v>
+        <v>384.2687421599728</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159758</v>
+        <v>476.7193540159776</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285345</v>
+        <v>530.4421353285364</v>
       </c>
       <c r="N5" t="n">
-        <v>539.025243638329</v>
+        <v>539.0252436383311</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113096</v>
+        <v>508.9862526113115</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906141</v>
+        <v>434.4079907906158</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190736</v>
+        <v>326.2223097190748</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025524</v>
+        <v>189.7610831025532</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639386</v>
+        <v>68.83856774639413</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802914</v>
+        <v>13.22395305802919</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442788</v>
+        <v>0.2416713294442797</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61631951054626</v>
+        <v>1.616319510546266</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395994</v>
+        <v>15.61024369395999</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328133</v>
+        <v>55.64959718328154</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433201</v>
+        <v>152.7067481433207</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499196</v>
+        <v>261.0001553499205</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876869</v>
+        <v>350.9469182876882</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449887</v>
+        <v>409.5385005449903</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345731</v>
+        <v>420.3777660345747</v>
       </c>
       <c r="O6" t="n">
-        <v>384.563528458785</v>
+        <v>384.5635284587864</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077328</v>
+        <v>308.646135307734</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970981</v>
+        <v>206.3217676970988</v>
       </c>
       <c r="R6" t="n">
-        <v>100.353592067074</v>
+        <v>100.3535920670744</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633073</v>
+        <v>30.02242599633085</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807072</v>
+        <v>6.514901886807096</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043593</v>
+        <v>0.1063368099043597</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950632</v>
+        <v>1.355067981950637</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952472</v>
+        <v>12.04778623952476</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720629</v>
+        <v>40.75058985720644</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390968</v>
+        <v>95.80330632391004</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029916</v>
+        <v>157.4342619029922</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165513</v>
+        <v>201.461652516552</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706795</v>
+        <v>212.4130655706803</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379546</v>
+        <v>207.3623576379554</v>
       </c>
       <c r="O7" t="n">
-        <v>191.532699848804</v>
+        <v>191.5326998488047</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170109</v>
+        <v>163.8893130170115</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886116</v>
+        <v>113.468465288612</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843477</v>
+        <v>60.92878398843499</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544873</v>
+        <v>23.61513928544882</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879972</v>
+        <v>5.789835922879994</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0739127990154891</v>
+        <v>0.07391279901548937</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,37 +32779,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32818,7 +32818,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32867,16 +32867,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
         <v>300.7247737883114</v>
@@ -32885,19 +32885,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780294</v>
@@ -33040,13 +33040,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.938547087769</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108096</v>
+        <v>75.34849544108192</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149908</v>
+        <v>164.1788911149923</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459886</v>
+        <v>240.9529390459904</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012618</v>
+        <v>300.0959021012637</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417381</v>
+        <v>309.6121800417401</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896229</v>
+        <v>278.8880411896248</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353446</v>
+        <v>203.1749950353462</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446241</v>
+        <v>103.9166198446253</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.9601568170623</v>
+        <v>25.86912147665402</v>
       </c>
       <c r="K6" t="n">
-        <v>272.2000844823155</v>
+        <v>149.8406507385949</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078127</v>
+        <v>212.392538507814</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229704</v>
+        <v>267.4044666229719</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512399</v>
+        <v>289.0360539512415</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143405</v>
+        <v>241.9672840143419</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934025</v>
+        <v>423.3179548919688</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107655</v>
+        <v>66.33999361107732</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144308426</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236906</v>
+        <v>2.444126207237261</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771087</v>
+        <v>135.1647700771093</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768674</v>
+        <v>229.0516777768682</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325201</v>
+        <v>251.9969425325209</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171832</v>
+        <v>251.494530017184</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628436</v>
+        <v>216.1178277628443</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819044</v>
+        <v>161.167872281905</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691718</v>
+        <v>27.30642203691761</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489566</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>412.3780932933485</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
